--- a/src/test/resources/testData/testDataForOilfield.xlsx
+++ b/src/test/resources/testData/testDataForOilfield.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pankaj.yadav\eclipse-workspace\ExposureHubEverest\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pankaj.yadav\eclipse-workspace\ExposureHub\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -341,9 +341,6 @@
     <t>invert_colors</t>
   </si>
   <si>
-    <t>wind_power</t>
-  </si>
-  <si>
     <t>Property</t>
   </si>
   <si>
@@ -359,9 +356,6 @@
     <t>Property,Property</t>
   </si>
   <si>
-    <t>Offshore (Entity A)</t>
-  </si>
-  <si>
     <t>user2b</t>
   </si>
   <si>
@@ -377,9 +371,6 @@
     <t>https://oilfield-uat-eh.ebixexchange.com/login</t>
   </si>
   <si>
-    <t>user.admin</t>
-  </si>
-  <si>
     <t>Policy_Oil14022024_</t>
   </si>
   <si>
@@ -387,6 +378,15 @@
   </si>
   <si>
     <t>Offshore,Onshore</t>
+  </si>
+  <si>
+    <t>Onshore</t>
+  </si>
+  <si>
+    <t>Offshore (OilField)</t>
+  </si>
+  <si>
+    <t>pankaj.yadav</t>
   </si>
 </sst>
 </file>
@@ -832,7 +832,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +862,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +881,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,15 +901,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
@@ -956,7 +956,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C2" s="5">
         <v>2</v>
@@ -989,7 +989,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C5" s="5">
         <v>5</v>
@@ -1019,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,27 +1046,27 @@
         <v>98</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1107,7 +1107,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="10"/>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>99</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>102</v>
@@ -1154,14 +1154,18 @@
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1316,12 +1320,12 @@
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>

--- a/src/test/resources/testData/testDataForOilfield.xlsx
+++ b/src/test/resources/testData/testDataForOilfield.xlsx
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testData/testDataForOilfield.xlsx
+++ b/src/test/resources/testData/testDataForOilfield.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="6180" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="6180"/>
   </bookViews>
   <sheets>
     <sheet name="basicDetails" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
   <si>
     <t>Username</t>
   </si>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <t>pankaj.yadav</t>
+  </si>
+  <si>
+    <t>Release Version</t>
+  </si>
+  <si>
+    <t>S105</t>
   </si>
 </sst>
 </file>
@@ -829,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,6 +869,14 @@
       </c>
       <c r="B3" s="6" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1021,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
